--- a/html/PRO-standarder (HL7 CDA)_excel.XLSX
+++ b/html/PRO-standarder (HL7 CDA)_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC4F22-942C-41DE-83AE-212BA0918270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3F541-1864-4A88-9F4A-CB30580D6C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 12-05-2025'!$A$1:$S$13</definedName>
+    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 16-05-2025'!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/PRO-standarder (HL7 CDA)_excel.XLSX
+++ b/html/PRO-standarder (HL7 CDA)_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3F541-1864-4A88-9F4A-CB30580D6C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E8B3F-CDB1-4EBD-94FF-1CD3E2300E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 16-05-2025'!$A$1:$S$13</definedName>
+    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 02-12-2025'!$A$1:$S$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
   <si>
     <t>Standard</t>
   </si>
@@ -103,6 +103,9 @@
     <t>Ikke Godkendt</t>
   </si>
   <si>
+    <t>PHMR (2.1)</t>
+  </si>
+  <si>
     <t>Questionnaire Form Definition Document</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Sende</t>
-  </si>
-  <si>
-    <t>PHMR (2.1)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -575,30 +575,21 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -606,30 +597,36 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
       <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -637,25 +634,16 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -663,10 +651,16 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
-        <v>22</v>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
       <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
         <v>22</v>
       </c>
       <c r="O8" t="s">
@@ -675,25 +669,22 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -701,87 +692,110 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>22</v>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/html/PRO-standarder (HL7 CDA)_excel.XLSX
+++ b/html/PRO-standarder (HL7 CDA)_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E8B3F-CDB1-4EBD-94FF-1CD3E2300E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0243D1-0F2B-4B49-A0BA-7857DB1C5890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/PRO-standarder (HL7 CDA)_excel.XLSX
+++ b/html/PRO-standarder (HL7 CDA)_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0243D1-0F2B-4B49-A0BA-7857DB1C5890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C197B6C-368F-41F4-BACD-6B6F03401643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 02-12-2025'!$A$1:$S$14</definedName>
+    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 05-12-2025'!$A$1:$S$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -475,9 +475,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -553,7 +553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -610,7 +610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -624,7 +624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -667,7 +667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -687,7 +687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -710,7 +710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -741,7 +741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>

--- a/html/PRO-standarder (HL7 CDA)_excel.XLSX
+++ b/html/PRO-standarder (HL7 CDA)_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C197B6C-368F-41F4-BACD-6B6F03401643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6AB87-4F32-44B4-B0E6-A8AB76EFD6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 05-12-2025'!$A$1:$S$14</definedName>
+    <definedName name="PRO_standarder__HL7_CDA_">'Opdateret d. 19-12-2025'!$A$1:$S$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -475,9 +475,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -553,7 +553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -610,7 +610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -624,7 +624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -667,7 +667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -687,7 +687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -707,10 +707,10 @@
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -741,7 +741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -784,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
